--- a/data/trans_dic/P24_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores de cabeza con bastante o mucha frecuencia</t>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>29,34%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>25,25%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>30,89%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>21,57%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>12,65%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>19,05%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>20,57%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 22,9</t>
+          <t>9,46; 23,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,92</t>
+          <t>4,99; 14,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 19,63</t>
+          <t>8,69; 21,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 12,67</t>
+          <t>3,56; 13,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 21,86</t>
+          <t>5,09; 17,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 37,33</t>
+          <t>5,65; 21,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,85; 24,15</t>
+          <t>8,65; 27,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 32,08</t>
+          <t>22,0; 36,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,04; 32,84</t>
+          <t>11,42; 23,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,06; 40,64</t>
+          <t>19,1; 31,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 26,58</t>
+          <t>17,28; 31,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 16,53</t>
+          <t>11,92; 23,68</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,65; 23,78</t>
+          <t>22,56; 39,96</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,56; 21,29</t>
+          <t>22,02; 38,42</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 27,0</t>
+          <t>17,47; 26,91</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 17,29</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 24,29</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>11,35; 20,57</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 18,88</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 27,24</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>16,39; 28,68</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>22,65%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>24,95%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>23,63%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>23,75%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,57%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>29,1%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31,84%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>18,33%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>14,62%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>18,39%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>18,51%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>24,25%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>18,55%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 24,89</t>
+          <t>8,8; 26,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,25</t>
+          <t>2,47; 8,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 18,75</t>
+          <t>9,24; 20,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 16,25</t>
+          <t>7,06; 16,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 28,99</t>
+          <t>5,12; 15,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,65; 28,23</t>
+          <t>12,78; 28,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,29; 32,36</t>
+          <t>4,69; 16,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 29,15</t>
+          <t>17,62; 29,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,27; 33,16</t>
+          <t>18,79; 31,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 36,34</t>
+          <t>18,76; 30,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 24,13</t>
+          <t>21,32; 33,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 18,46</t>
+          <t>18,98; 32,45</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,61; 22,48</t>
+          <t>22,08; 36,8</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 22,74</t>
+          <t>24,67; 39,41</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>19,02; 29,56</t>
+          <t>14,65; 23,97</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 18,53</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 22,84</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 22,16</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>12,91; 22,17</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 29,8</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 25,39</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>12,81%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>25,06%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>23,97%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>22,66%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>30,81%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>37,16%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>17,58%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>15,52%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>15,72%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>18,53%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>21,31%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>18,49%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,16</t>
+          <t>6,75; 14,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,52</t>
+          <t>4,77; 11,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,37</t>
+          <t>5,27; 12,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,52</t>
+          <t>6,66; 13,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 18,24</t>
+          <t>5,94; 14,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,76; 29,88</t>
+          <t>8,73; 18,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 30,33</t>
+          <t>5,81; 14,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 27,69</t>
+          <t>20,33; 30,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,44; 32,09</t>
+          <t>18,86; 28,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,0; 36,19</t>
+          <t>18,94; 27,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,69; 20,94</t>
+          <t>22,49; 31,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 19,57</t>
+          <t>24,03; 34,62</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 18,95</t>
+          <t>25,22; 36,76</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,11</t>
+          <t>30,28; 43,58</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 25,58</t>
+          <t>14,63; 20,94</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 19,18</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13,35; 19,1</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>15,71; 21,65</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 23,12</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 25,53</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>18,98; 27,08</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>13,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>18,91%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>20,67%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>25,89%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27,52%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>13,13%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>14,35%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>16,81%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>23,04%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,1</t>
+          <t>4,34; 10,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,58</t>
+          <t>4,41; 14,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,78</t>
+          <t>4,8; 10,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,66</t>
+          <t>5,26; 10,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 18,31</t>
+          <t>4,19; 10,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 23,36</t>
+          <t>8,61; 18,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 25,62</t>
+          <t>8,54; 17,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,17; 30,51</t>
+          <t>14,98; 23,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,58; 26,71</t>
+          <t>16,78; 25,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,74; 40,21</t>
+          <t>22,1; 31,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 15,83</t>
+          <t>18,11; 26,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,62; 18,03</t>
+          <t>22,23; 32,85</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,01</t>
+          <t>28,42; 41,02</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>12,61; 17,86</t>
+          <t>25,48; 37,09</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>18,93; 27,27</t>
+          <t>10,49; 15,91</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 18,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 19,84</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 17,78</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 20,67</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 27,44</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>18,02; 25,3</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>10,9%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,66%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>14,3%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>16,24%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,8%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>30,59%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>31,94%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>9,51%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>12,05%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>11,96%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>21,2%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,21</t>
+          <t>2,6; 8,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 13,75</t>
+          <t>3,9; 13,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 11,71</t>
+          <t>5,18; 12,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,93</t>
+          <t>2,97; 7,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 16,81</t>
+          <t>3,4; 9,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,69; 18,57</t>
+          <t>7,11; 16,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 18,54</t>
+          <t>13,21; 24,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 20,81</t>
+          <t>10,14; 19,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,63</t>
+          <t>9,83; 19,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,29; 37,16</t>
+          <t>12,44; 21,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,25</t>
+          <t>14,21; 23,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 14,39</t>
+          <t>11,49; 21,85</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 14,93</t>
+          <t>24,85; 36,93</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,16</t>
+          <t>25,37; 38,73</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 25,32</t>
+          <t>7,12; 12,27</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 13,84</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 15,16</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 15,15</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 15,19</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 25,07</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>21,45; 30,29</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8,53%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,11%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>15,89%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>6,93%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>8,24%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>12,8%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,04</t>
+          <t>0,97; 6,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 10,56</t>
+          <t>2,59; 9,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,64</t>
+          <t>1,69; 7,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,79</t>
+          <t>1,2; 6,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,67</t>
+          <t>2,37; 11,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,83</t>
+          <t>4,77; 14,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,06; 15,54</t>
+          <t>2,39; 11,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,55; 18,31</t>
+          <t>6,43; 15,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 18,01</t>
+          <t>6,45; 17,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 24,23</t>
+          <t>9,11; 17,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,26</t>
+          <t>9,65; 20,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,87</t>
+          <t>10,81; 23,27</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,12</t>
+          <t>9,42; 24,02</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,06</t>
+          <t>15,77; 29,76</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,83</t>
+          <t>4,7; 10,07</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 12,14</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 11,94</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 13,93</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>8,01; 16,12</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 18,46</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 19,62</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>12,83%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>19,54%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>18,34%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>21,07%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>27,97%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30,27%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>14,31%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>12,74%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>15,18%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>20,43%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,13</t>
+          <t>7,26; 11,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,76</t>
+          <t>5,54; 8,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,78</t>
+          <t>7,66; 11,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,02</t>
+          <t>6,05; 8,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,37</t>
+          <t>6,24; 9,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,76; 21,98</t>
+          <t>10,63; 15,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 20,74</t>
+          <t>9,68; 14,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,94; 22,99</t>
+          <t>17,62; 22,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,64; 24,06</t>
+          <t>16,3; 20,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,19</t>
+          <t>19,17; 23,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,99; 15,84</t>
+          <t>19,89; 24,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,27; 14,16</t>
+          <t>19,85; 24,78</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>13,95; 16,68</t>
+          <t>25,34; 31,02</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>13,66; 16,27</t>
+          <t>27,47; 32,91</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>18,57; 22,52</t>
+          <t>13,01; 15,88</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 14,28</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 16,7</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 16,45</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 16,94</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>18,55; 22,27</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>74706</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45283</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72121</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36047</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46994</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4795</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6818</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>135801</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81305</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>129067</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>121598</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>83658</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11551</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11476</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>210508</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>126587</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>201188</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>157645</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>130652</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>16347</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>18294</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>48520; 120358</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25063; 73410</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45533; 113633</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17998; 69465</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23745; 81952</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2376; 8956</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3812; 11978</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>101835; 168159</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53524; 112190</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98361; 164427</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>88833; 160507</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56896; 113007</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8439; 14946</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8490; 14810</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>170458; 262577</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>93080; 167902</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>158004; 252408</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>115804; 209804</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>90747; 178200</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>12193; 21650</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>13543; 23696</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>80905</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29090</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78491</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>65270</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>53828</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9696</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4374</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>117527</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>127789</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>120662</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>139429</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>129178</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13737</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14647</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>198432</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>156880</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>199153</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>204699</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>183006</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>23433</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>19020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49599; 147075</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14156; 51157</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>52244; 114338</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41972; 95524</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29686; 89267</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6318; 14300</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2225; 7946</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>91421; 152687</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>97029; 164412</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>95293; 153285</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>110286; 172649</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>95886; 163922</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10423; 17369</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11351; 18132</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>158599; 259382</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>119384; 201928</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>161055; 245195</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>164648; 246330</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>140046; 240527</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>18572; 28808</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>14818; 23722</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>66834</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51613</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>56188</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>65131</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>64843</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7715</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5696</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>173996</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>166150</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>166848</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>192598</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>207672</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16611</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20382</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>240830</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>217763</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>223036</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>257729</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>272514</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>24326</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>26078</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45607; 96303</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32739; 80321</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35609; 86801</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45312; 92394</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40309; 96612</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5253; 10876</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3508; 8652</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>141150; 211927</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>134385; 206510</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>136055; 199602</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>160497; 226721</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>172432; 248416</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13596; 19821</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16611; 23904</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>200498; 286884</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>178074; 268241</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>186172; 266304</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>218972; 301693</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>229184; 322803</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>19943; 29142</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>21879; 31221</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43219</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49917</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47402</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>50104</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>45362</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7576</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7259</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132978</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143183</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>176342</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>147904</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>181483</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>17932</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>16501</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>176197</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>193100</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>223744</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>198008</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>226845</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>25508</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>23760</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27720; 64634</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28570; 95971</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30987; 70689</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33511; 69772</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27314; 69752</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5015; 10717</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4867; 10056</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>105320; 163130</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>115078; 177180</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>148438; 208610</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>119482; 175782</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>146593; 216638</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>14897; 21508</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>13571; 19756</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>140727; 213507</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>153027; 242310</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>187880; 261404</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>166998; 230471</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>185801; 271093</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>21624; 30377</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>19862; 27892</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24600</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35057</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39653</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24821</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29838</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4848</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>71838</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>69130</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>82687</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>96850</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>84538</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>14917</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>14891</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>96438</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>104187</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>122340</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>121671</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>114377</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>19765</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>23310</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13302; 41553</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19308; 67224</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25955; 60528</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14591; 38754</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16641; 48352</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3161; 7398</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5959; 11122</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>50955; 97746</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50019; 98360</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>62241; 105442</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>73181; 122136</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>59420; 112971</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>12120; 18010</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>11826; 18054</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>72195; 124511</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>74766; 138959</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>95750; 151859</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>97195; 152473</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>85833; 152775</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>16368; 23383</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>19677; 27785</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14637</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29439</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19649</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16122</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31134</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2562</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>73875</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>74149</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>89976</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>95936</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>121893</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>13531</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>88512</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>103588</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>109624</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>112058</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>153027</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>14080</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>16093</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5278; 34028</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14111; 53431</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8797; 37974</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6374; 35054</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13429; 62427</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2209; 6832</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1095; 5071</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>46990; 112023</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>46297; 127033</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>62796; 121827</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>66567; 143448</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>79081; 170181</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>6004; 15304</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>9901; 18679</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>60078; 128730</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>69737; 153284</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>80446; 144483</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>78013; 170224</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>103971; 209159</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>9533; 20317</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>11866; 21314</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>304901</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>240400</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>313504</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>257496</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>271999</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38582</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>35128</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>706016</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>661705</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>765582</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>794314</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>808421</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>84877</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>91428</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1010916</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>902105</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1079085</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1051809</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1080420</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>123459</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>126555</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>250267; 383844</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>191002; 299184</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>262985; 378578</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>208265; 304537</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>214120; 331810</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>31983; 46276</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29033; 42644</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>636691; 796551</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>588317; 745310</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>690614; 838428</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>718018; 870687</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>715957; 893969</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>76904; 94138</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>82990; 99419</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>919123; 1121558</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>804372; 1008045</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>992486; 1175213</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>957307; 1159955</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>976097; 1192956</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>112064; 134546</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>115832; 138137</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>